--- a/H1299_143B_prot-nucl-quant/Asn-consumption-flux_143B/CoulterCounter_data/merged.xlsx
+++ b/H1299_143B_prot-nucl-quant/Asn-consumption-flux_143B/CoulterCounter_data/merged.xlsx
@@ -112,7 +112,7 @@
     <t>143B-Asn-uptake-flux_t0_w3_ 3 Oct 2020_02.#m4</t>
   </si>
   <si>
-    <t>143B-Asn-uptake-flux_t0_w4_ 3 Oct 2020_04.#m4</t>
+    <t>143B-Asn-uptake-flux_t0_w4_ 3 Oct 2020_01.#m4</t>
   </si>
   <si>
     <t>143B-Asn-uptake-flux_t0_w4_ 3 Oct 2020_02.#m4</t>
@@ -598,22 +598,22 @@
         <v>4997</v>
       </c>
       <c r="H2">
-        <v>13.1</v>
+        <v>1177</v>
       </c>
       <c r="I2">
-        <v>35.15</v>
+        <v>40408</v>
       </c>
       <c r="J2">
-        <v>167300</v>
+        <v>167400</v>
       </c>
       <c r="K2">
-        <v>20.67</v>
+        <v>4854</v>
       </c>
       <c r="L2">
-        <v>20.45</v>
+        <v>4479</v>
       </c>
       <c r="M2">
-        <v>2.568</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -639,22 +639,22 @@
         <v>5226</v>
       </c>
       <c r="H3">
-        <v>13.1</v>
+        <v>1177</v>
       </c>
       <c r="I3">
-        <v>35.15</v>
+        <v>40408</v>
       </c>
       <c r="J3">
-        <v>170400</v>
+        <v>170500</v>
       </c>
       <c r="K3">
-        <v>20.88</v>
+        <v>5008</v>
       </c>
       <c r="L3">
-        <v>20.65</v>
+        <v>4612</v>
       </c>
       <c r="M3">
-        <v>2.587</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -680,22 +680,22 @@
         <v>5611</v>
       </c>
       <c r="H4">
-        <v>13.1</v>
+        <v>1177</v>
       </c>
       <c r="I4">
-        <v>35.15</v>
+        <v>40408</v>
       </c>
       <c r="J4">
         <v>188500</v>
       </c>
       <c r="K4">
-        <v>20.84</v>
+        <v>4979</v>
       </c>
       <c r="L4">
-        <v>20.55</v>
+        <v>4543</v>
       </c>
       <c r="M4">
-        <v>2.636</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -721,22 +721,22 @@
         <v>5699</v>
       </c>
       <c r="H5">
-        <v>13.1</v>
+        <v>1177</v>
       </c>
       <c r="I5">
-        <v>35.15</v>
+        <v>40408</v>
       </c>
       <c r="J5">
-        <v>190200</v>
+        <v>190400</v>
       </c>
       <c r="K5">
-        <v>20.88</v>
+        <v>5020</v>
       </c>
       <c r="L5">
-        <v>20.63</v>
+        <v>4599</v>
       </c>
       <c r="M5">
-        <v>2.633</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -762,22 +762,22 @@
         <v>5249</v>
       </c>
       <c r="H6">
-        <v>13.1</v>
+        <v>1177</v>
       </c>
       <c r="I6">
-        <v>35.15</v>
+        <v>40408</v>
       </c>
       <c r="J6">
-        <v>173600</v>
+        <v>173800</v>
       </c>
       <c r="K6">
-        <v>21</v>
+        <v>5102</v>
       </c>
       <c r="L6">
-        <v>20.73</v>
+        <v>4663</v>
       </c>
       <c r="M6">
-        <v>2.618</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -803,22 +803,22 @@
         <v>5198</v>
       </c>
       <c r="H7">
-        <v>13.1</v>
+        <v>1177</v>
       </c>
       <c r="I7">
-        <v>35.15</v>
+        <v>40408</v>
       </c>
       <c r="J7">
         <v>172200</v>
       </c>
       <c r="K7">
-        <v>21.04</v>
+        <v>5127</v>
       </c>
       <c r="L7">
-        <v>20.76</v>
+        <v>4684</v>
       </c>
       <c r="M7">
-        <v>2.658</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -844,22 +844,22 @@
         <v>6600</v>
       </c>
       <c r="H8">
-        <v>13.1</v>
+        <v>1177</v>
       </c>
       <c r="I8">
-        <v>35.15</v>
+        <v>40408</v>
       </c>
       <c r="J8">
-        <v>207600</v>
+        <v>207700</v>
       </c>
       <c r="K8">
-        <v>21.05</v>
+        <v>5149</v>
       </c>
       <c r="L8">
-        <v>20.81</v>
+        <v>4718</v>
       </c>
       <c r="M8">
-        <v>2.732</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -885,22 +885,22 @@
         <v>6478</v>
       </c>
       <c r="H9">
-        <v>13.1</v>
+        <v>1177</v>
       </c>
       <c r="I9">
-        <v>35.15</v>
+        <v>40408</v>
       </c>
       <c r="J9">
         <v>204400</v>
       </c>
       <c r="K9">
-        <v>21.17</v>
+        <v>5218</v>
       </c>
       <c r="L9">
-        <v>20.92</v>
+        <v>4792</v>
       </c>
       <c r="M9">
-        <v>2.647</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -926,22 +926,22 @@
         <v>5708</v>
       </c>
       <c r="H10">
-        <v>13.1</v>
+        <v>1177</v>
       </c>
       <c r="I10">
-        <v>35.15</v>
+        <v>40408</v>
       </c>
       <c r="J10">
-        <v>191000</v>
+        <v>191200</v>
       </c>
       <c r="K10">
-        <v>21.23</v>
+        <v>5269</v>
       </c>
       <c r="L10">
-        <v>20.94</v>
+        <v>4812</v>
       </c>
       <c r="M10">
-        <v>2.624</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -967,22 +967,22 @@
         <v>5395</v>
       </c>
       <c r="H11">
-        <v>13.1</v>
+        <v>1177</v>
       </c>
       <c r="I11">
-        <v>35.15</v>
+        <v>40408</v>
       </c>
       <c r="J11">
-        <v>177200</v>
+        <v>177300</v>
       </c>
       <c r="K11">
-        <v>21.29</v>
+        <v>5296</v>
       </c>
       <c r="L11">
-        <v>21.07</v>
+        <v>4899</v>
       </c>
       <c r="M11">
-        <v>2.638</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1008,22 +1008,22 @@
         <v>5682</v>
       </c>
       <c r="H12">
-        <v>13.1</v>
+        <v>1177</v>
       </c>
       <c r="I12">
-        <v>35.15</v>
+        <v>40408</v>
       </c>
       <c r="J12">
-        <v>187800</v>
+        <v>188000</v>
       </c>
       <c r="K12">
-        <v>21.26</v>
+        <v>5288</v>
       </c>
       <c r="L12">
-        <v>21.02</v>
+        <v>4868</v>
       </c>
       <c r="M12">
-        <v>2.671</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1049,22 +1049,22 @@
         <v>5475</v>
       </c>
       <c r="H13">
-        <v>13.1</v>
+        <v>1177</v>
       </c>
       <c r="I13">
-        <v>35.15</v>
+        <v>40408</v>
       </c>
       <c r="J13">
-        <v>181800</v>
+        <v>181900</v>
       </c>
       <c r="K13">
-        <v>21.42</v>
+        <v>5397</v>
       </c>
       <c r="L13">
-        <v>21.2</v>
+        <v>4990</v>
       </c>
       <c r="M13">
-        <v>2.647</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1090,22 +1090,22 @@
         <v>14840</v>
       </c>
       <c r="H14">
-        <v>13.1</v>
+        <v>1177</v>
       </c>
       <c r="I14">
-        <v>35.15</v>
+        <v>40408</v>
       </c>
       <c r="J14">
-        <v>528000</v>
+        <v>528500</v>
       </c>
       <c r="K14">
-        <v>20.96</v>
+        <v>5099</v>
       </c>
       <c r="L14">
-        <v>20.61</v>
+        <v>4586</v>
       </c>
       <c r="M14">
-        <v>2.708</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1131,22 +1131,22 @@
         <v>14911</v>
       </c>
       <c r="H15">
-        <v>13.1</v>
+        <v>1177</v>
       </c>
       <c r="I15">
-        <v>35.15</v>
+        <v>40408</v>
       </c>
       <c r="J15">
-        <v>511600</v>
+        <v>512200</v>
       </c>
       <c r="K15">
-        <v>21.08</v>
+        <v>5176</v>
       </c>
       <c r="L15">
-        <v>20.8</v>
+        <v>4716</v>
       </c>
       <c r="M15">
-        <v>2.699</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1172,22 +1172,22 @@
         <v>15643</v>
       </c>
       <c r="H16">
-        <v>13.1</v>
+        <v>1177</v>
       </c>
       <c r="I16">
-        <v>35.15</v>
+        <v>40408</v>
       </c>
       <c r="J16">
-        <v>532200</v>
+        <v>532900</v>
       </c>
       <c r="K16">
-        <v>21.14</v>
+        <v>5219</v>
       </c>
       <c r="L16">
-        <v>20.87</v>
+        <v>4763</v>
       </c>
       <c r="M16">
-        <v>2.693</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1213,22 +1213,22 @@
         <v>15049</v>
       </c>
       <c r="H17">
-        <v>13.1</v>
+        <v>1177</v>
       </c>
       <c r="I17">
-        <v>35.15</v>
+        <v>40408</v>
       </c>
       <c r="J17">
-        <v>501400</v>
+        <v>502100</v>
       </c>
       <c r="K17">
-        <v>21.25</v>
+        <v>5315</v>
       </c>
       <c r="L17">
-        <v>21.04</v>
+        <v>4883</v>
       </c>
       <c r="M17">
-        <v>2.752</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1254,22 +1254,22 @@
         <v>16096</v>
       </c>
       <c r="H18">
-        <v>13.1</v>
+        <v>1177</v>
       </c>
       <c r="I18">
-        <v>35.15</v>
+        <v>40408</v>
       </c>
       <c r="J18">
-        <v>536300</v>
+        <v>537600</v>
       </c>
       <c r="K18">
-        <v>21.51</v>
+        <v>5528</v>
       </c>
       <c r="L18">
-        <v>21.29</v>
+        <v>5055</v>
       </c>
       <c r="M18">
-        <v>2.772</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1295,22 +1295,22 @@
         <v>15736</v>
       </c>
       <c r="H19">
-        <v>13.1</v>
+        <v>1177</v>
       </c>
       <c r="I19">
-        <v>35.15</v>
+        <v>40408</v>
       </c>
       <c r="J19">
-        <v>507800</v>
+        <v>509100</v>
       </c>
       <c r="K19">
-        <v>21.58</v>
+        <v>5583</v>
       </c>
       <c r="L19">
-        <v>21.33</v>
+        <v>5087</v>
       </c>
       <c r="M19">
-        <v>2.776</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1336,22 +1336,22 @@
         <v>16741</v>
       </c>
       <c r="H20">
-        <v>13.1</v>
+        <v>1177</v>
       </c>
       <c r="I20">
-        <v>35.15</v>
+        <v>40408</v>
       </c>
       <c r="J20">
-        <v>566400</v>
+        <v>567500</v>
       </c>
       <c r="K20">
-        <v>21.63</v>
+        <v>5620</v>
       </c>
       <c r="L20">
-        <v>21.36</v>
+        <v>5106</v>
       </c>
       <c r="M20">
-        <v>2.826</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1377,22 +1377,22 @@
         <v>16600</v>
       </c>
       <c r="H21">
-        <v>13.1</v>
+        <v>1177</v>
       </c>
       <c r="I21">
-        <v>35.15</v>
+        <v>40408</v>
       </c>
       <c r="J21">
-        <v>544000</v>
+        <v>544700</v>
       </c>
       <c r="K21">
-        <v>21.6</v>
+        <v>5566</v>
       </c>
       <c r="L21">
-        <v>21.37</v>
+        <v>5116</v>
       </c>
       <c r="M21">
-        <v>2.773</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1418,22 +1418,22 @@
         <v>16432</v>
       </c>
       <c r="H22">
-        <v>13.1</v>
+        <v>1177</v>
       </c>
       <c r="I22">
-        <v>35.15</v>
+        <v>40408</v>
       </c>
       <c r="J22">
-        <v>554700</v>
+        <v>555700</v>
       </c>
       <c r="K22">
-        <v>21.61</v>
+        <v>5600</v>
       </c>
       <c r="L22">
-        <v>21.38</v>
+        <v>5125</v>
       </c>
       <c r="M22">
-        <v>2.802</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1459,22 +1459,22 @@
         <v>15695</v>
       </c>
       <c r="H23">
-        <v>13.1</v>
+        <v>1177</v>
       </c>
       <c r="I23">
-        <v>35.15</v>
+        <v>40408</v>
       </c>
       <c r="J23">
-        <v>509000</v>
+        <v>509800</v>
       </c>
       <c r="K23">
-        <v>21.62</v>
+        <v>5592</v>
       </c>
       <c r="L23">
-        <v>21.38</v>
+        <v>5123</v>
       </c>
       <c r="M23">
-        <v>2.772</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1500,22 +1500,22 @@
         <v>16430</v>
       </c>
       <c r="H24">
-        <v>13.1</v>
+        <v>1177</v>
       </c>
       <c r="I24">
-        <v>35.15</v>
+        <v>40408</v>
       </c>
       <c r="J24">
-        <v>540000</v>
+        <v>540600</v>
       </c>
       <c r="K24">
-        <v>21.58</v>
+        <v>5567</v>
       </c>
       <c r="L24">
-        <v>21.41</v>
+        <v>5142</v>
       </c>
       <c r="M24">
-        <v>2.845</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1541,22 +1541,22 @@
         <v>15460</v>
       </c>
       <c r="H25">
-        <v>13.1</v>
+        <v>1177</v>
       </c>
       <c r="I25">
-        <v>35.15</v>
+        <v>40408</v>
       </c>
       <c r="J25">
-        <v>492200</v>
+        <v>493100</v>
       </c>
       <c r="K25">
-        <v>21.72</v>
+        <v>5662</v>
       </c>
       <c r="L25">
-        <v>21.53</v>
+        <v>5230</v>
       </c>
       <c r="M25">
-        <v>2.717</v>
+        <v>2402</v>
       </c>
     </row>
   </sheetData>
